--- a/PBT-Booking-traveling-/Docs/Sprints-Schedule.xlsx
+++ b/PBT-Booking-traveling-/Docs/Sprints-Schedule.xlsx
@@ -1386,9 +1386,6 @@
     <t xml:space="preserve">Ahmed Adel </t>
   </si>
   <si>
-    <t>…………..</t>
-  </si>
-  <si>
     <t>Ibrahim rashed</t>
   </si>
   <si>
@@ -1462,6 +1459,9 @@
   </si>
   <si>
     <t>Sprint 3 OffersSection</t>
+  </si>
+  <si>
+    <t>Ebrahim Rashed &amp; Eid</t>
   </si>
 </sst>
 </file>
@@ -2643,6 +2643,9 @@
     <xf numFmtId="0" fontId="62" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2660,9 +2663,6 @@
     </xf>
     <xf numFmtId="166" fontId="41" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2714,111 +2714,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -3018,7 +2914,7 @@
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,7 +2966,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>104776</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -3082,7 +2978,7 @@
                   <a14:compatExt spid="_x0000_s8238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3132,7 +3028,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3216,7 +3112,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3271,7 +3167,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3326,7 +3222,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3654,8 +3550,8 @@
   <dimension ref="A1:BK45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3678,29 +3574,29 @@
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
       <c r="F1" s="91"/>
-      <c r="H1" s="134" t="s">
+      <c r="H1" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="128"/>
     </row>
     <row r="2" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
@@ -3750,86 +3646,86 @@
       </c>
       <c r="F4" s="77"/>
       <c r="G4" s="44"/>
-      <c r="H4" s="128" t="str">
+      <c r="H4" s="129" t="str">
         <f>"Week "&amp;(H6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="128" t="str">
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="129" t="str">
         <f>"Week "&amp;(O6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="128" t="str">
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="129" t="str">
         <f>"Week "&amp;(V6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="W4" s="129"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="128" t="str">
+      <c r="W4" s="130"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="129" t="str">
         <f>"Week "&amp;(AC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="129"/>
-      <c r="AH4" s="129"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="128" t="str">
+      <c r="AD4" s="130"/>
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="130"/>
+      <c r="AH4" s="130"/>
+      <c r="AI4" s="131"/>
+      <c r="AJ4" s="129" t="str">
         <f>"Week "&amp;(AJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AK4" s="129"/>
-      <c r="AL4" s="129"/>
-      <c r="AM4" s="129"/>
-      <c r="AN4" s="129"/>
-      <c r="AO4" s="129"/>
-      <c r="AP4" s="130"/>
-      <c r="AQ4" s="128" t="str">
+      <c r="AK4" s="130"/>
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="130"/>
+      <c r="AP4" s="131"/>
+      <c r="AQ4" s="129" t="str">
         <f>"Week "&amp;(AQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AR4" s="129"/>
-      <c r="AS4" s="129"/>
-      <c r="AT4" s="129"/>
-      <c r="AU4" s="129"/>
-      <c r="AV4" s="129"/>
-      <c r="AW4" s="130"/>
-      <c r="AX4" s="128" t="str">
+      <c r="AR4" s="130"/>
+      <c r="AS4" s="130"/>
+      <c r="AT4" s="130"/>
+      <c r="AU4" s="130"/>
+      <c r="AV4" s="130"/>
+      <c r="AW4" s="131"/>
+      <c r="AX4" s="129" t="str">
         <f>"Week "&amp;(AX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AY4" s="129"/>
-      <c r="AZ4" s="129"/>
-      <c r="BA4" s="129"/>
-      <c r="BB4" s="129"/>
-      <c r="BC4" s="129"/>
-      <c r="BD4" s="130"/>
-      <c r="BE4" s="128" t="str">
+      <c r="AY4" s="130"/>
+      <c r="AZ4" s="130"/>
+      <c r="BA4" s="130"/>
+      <c r="BB4" s="130"/>
+      <c r="BC4" s="130"/>
+      <c r="BD4" s="131"/>
+      <c r="BE4" s="129" t="str">
         <f>"Week "&amp;(BE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BF4" s="129"/>
-      <c r="BG4" s="129"/>
-      <c r="BH4" s="129"/>
-      <c r="BI4" s="129"/>
-      <c r="BJ4" s="129"/>
-      <c r="BK4" s="130"/>
+      <c r="BF4" s="130"/>
+      <c r="BG4" s="130"/>
+      <c r="BH4" s="130"/>
+      <c r="BI4" s="130"/>
+      <c r="BJ4" s="130"/>
+      <c r="BK4" s="131"/>
     </row>
     <row r="5" spans="1:63" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76"/>
@@ -3841,86 +3737,86 @@
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
       <c r="G5" s="44"/>
-      <c r="H5" s="131">
+      <c r="H5" s="132">
         <f>H6</f>
         <v>43157</v>
       </c>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="131">
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="132">
         <f>O6</f>
         <v>43164</v>
       </c>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="132"/>
-      <c r="S5" s="132"/>
-      <c r="T5" s="132"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="131">
+      <c r="P5" s="133"/>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="132">
         <f>V6</f>
         <v>43171</v>
       </c>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="133"/>
-      <c r="AC5" s="131">
+      <c r="W5" s="133"/>
+      <c r="X5" s="133"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="133"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="132">
         <f>AC6</f>
         <v>43178</v>
       </c>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="132"/>
-      <c r="AF5" s="132"/>
-      <c r="AG5" s="132"/>
-      <c r="AH5" s="132"/>
-      <c r="AI5" s="133"/>
-      <c r="AJ5" s="131">
+      <c r="AD5" s="133"/>
+      <c r="AE5" s="133"/>
+      <c r="AF5" s="133"/>
+      <c r="AG5" s="133"/>
+      <c r="AH5" s="133"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="132">
         <f>AJ6</f>
         <v>43185</v>
       </c>
-      <c r="AK5" s="132"/>
-      <c r="AL5" s="132"/>
-      <c r="AM5" s="132"/>
-      <c r="AN5" s="132"/>
-      <c r="AO5" s="132"/>
-      <c r="AP5" s="133"/>
-      <c r="AQ5" s="131">
+      <c r="AK5" s="133"/>
+      <c r="AL5" s="133"/>
+      <c r="AM5" s="133"/>
+      <c r="AN5" s="133"/>
+      <c r="AO5" s="133"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="132">
         <f>AQ6</f>
         <v>43192</v>
       </c>
-      <c r="AR5" s="132"/>
-      <c r="AS5" s="132"/>
-      <c r="AT5" s="132"/>
-      <c r="AU5" s="132"/>
-      <c r="AV5" s="132"/>
-      <c r="AW5" s="133"/>
-      <c r="AX5" s="131">
+      <c r="AR5" s="133"/>
+      <c r="AS5" s="133"/>
+      <c r="AT5" s="133"/>
+      <c r="AU5" s="133"/>
+      <c r="AV5" s="133"/>
+      <c r="AW5" s="134"/>
+      <c r="AX5" s="132">
         <f>AX6</f>
         <v>43199</v>
       </c>
-      <c r="AY5" s="132"/>
-      <c r="AZ5" s="132"/>
-      <c r="BA5" s="132"/>
-      <c r="BB5" s="132"/>
-      <c r="BC5" s="132"/>
-      <c r="BD5" s="133"/>
-      <c r="BE5" s="131">
+      <c r="AY5" s="133"/>
+      <c r="AZ5" s="133"/>
+      <c r="BA5" s="133"/>
+      <c r="BB5" s="133"/>
+      <c r="BC5" s="133"/>
+      <c r="BD5" s="134"/>
+      <c r="BE5" s="132">
         <f>BE6</f>
         <v>43206</v>
       </c>
-      <c r="BF5" s="132"/>
-      <c r="BG5" s="132"/>
-      <c r="BH5" s="132"/>
-      <c r="BI5" s="132"/>
-      <c r="BJ5" s="132"/>
-      <c r="BK5" s="133"/>
+      <c r="BF5" s="133"/>
+      <c r="BG5" s="133"/>
+      <c r="BH5" s="133"/>
+      <c r="BI5" s="133"/>
+      <c r="BJ5" s="133"/>
+      <c r="BK5" s="134"/>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" s="43"/>
@@ -4406,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="63"/>
@@ -4476,7 +4372,7 @@
         <v>1.1</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>129</v>
@@ -4945,7 +4841,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="54">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F15" s="55">
         <v>2</v>
@@ -5254,7 +5150,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="54">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F19" s="55">
         <v>5</v>
@@ -5401,16 +5297,16 @@
         <v>1.6</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D21" s="53">
         <v>4</v>
       </c>
       <c r="E21" s="54">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F21" s="55">
         <v>3</v>
@@ -5479,7 +5375,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="50"/>
@@ -5548,10 +5444,10 @@
         <v>2.1</v>
       </c>
       <c r="B23" s="88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" s="53">
         <v>4</v>
@@ -5626,7 +5522,7 @@
         <v>2.2</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="52" t="s">
         <v>148</v>
@@ -5702,7 +5598,7 @@
         <v>2.3</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" s="52" t="s">
         <v>134</v>
@@ -5778,7 +5674,7 @@
         <v>2.4</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="52" t="s">
         <v>134</v>
@@ -5853,10 +5749,10 @@
         <v>2.5</v>
       </c>
       <c r="B27" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="52" t="s">
         <v>157</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>158</v>
       </c>
       <c r="D27" s="53">
         <v>8</v>
@@ -5931,10 +5827,10 @@
         <v>2.6</v>
       </c>
       <c r="B28" s="88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="53">
         <v>3</v>
@@ -6009,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="50"/>
@@ -6078,10 +5974,10 @@
         <v>3.1</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D30" s="53">
         <v>8</v>
@@ -6156,10 +6052,10 @@
         <v>3.2</v>
       </c>
       <c r="B31" s="88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31" s="53">
         <v>6</v>
@@ -6234,10 +6130,10 @@
         <v>3.3</v>
       </c>
       <c r="B32" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="52" t="s">
         <v>169</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>170</v>
       </c>
       <c r="D32" s="53">
         <v>3</v>
@@ -6312,7 +6208,7 @@
         <v>3.4</v>
       </c>
       <c r="B33" s="88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="52" t="s">
         <v>134</v>
@@ -6389,10 +6285,10 @@
         <v>3.5</v>
       </c>
       <c r="B34" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="52" t="s">
         <v>159</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>160</v>
       </c>
       <c r="D34" s="53">
         <v>3</v>
@@ -6467,10 +6363,10 @@
         <v>3.6</v>
       </c>
       <c r="B35" s="88" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="52" t="s">
         <v>175</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>176</v>
       </c>
       <c r="D35" s="53">
         <v>1</v>
@@ -6545,10 +6441,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="50"/>
@@ -6981,10 +6877,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="48" t="s">
         <v>172</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>173</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="50"/>
@@ -7248,13 +7144,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="17">
-    <mergeCell ref="H1:AB1"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="V5:AB5"/>
     <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="AC5:AI5"/>
     <mergeCell ref="BE4:BK4"/>
@@ -7265,6 +7154,13 @@
     <mergeCell ref="AJ4:AP4"/>
     <mergeCell ref="AX4:BD4"/>
     <mergeCell ref="AX5:BD5"/>
+    <mergeCell ref="H1:AB1"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="V5:AB5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E8:E41 E43:E44">
@@ -7282,20 +7178,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BK7">
-    <cfRule type="expression" dxfId="21" priority="53">
+    <cfRule type="expression" dxfId="9" priority="53">
       <formula>H$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BK41 H43:BK44">
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>H$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:BK41 H43:BK44">
-    <cfRule type="expression" dxfId="19" priority="60">
+    <cfRule type="expression" dxfId="7" priority="60">
       <formula>AND(#REF!&lt;=H$6,ROUNDDOWN((#REF!-#REF!+1)*$E8,0)+#REF!-1&gt;=H$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="61">
+    <cfRule type="expression" dxfId="6" priority="61">
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=H$6,#REF!&gt;=H$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7314,15 +7210,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:BK42">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>H$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:BK42">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>AND(#REF!&lt;=H$6,ROUNDDOWN((#REF!-#REF!+1)*$E42,0)+#REF!-1&gt;=H$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=H$6,#REF!&gt;=H$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7341,15 +7237,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:BK45">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>H$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:BK45">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(#REF!&lt;=H$6,ROUNDDOWN((#REF!-#REF!+1)*$E45,0)+#REF!-1&gt;=H$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=H$6,#REF!&gt;=H$6)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PBT-Booking-traveling-/Docs/Sprints-Schedule.xlsx
+++ b/PBT-Booking-traveling-/Docs/Sprints-Schedule.xlsx
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="186">
   <si>
     <t>WBS</t>
   </si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>Creating Task Dependencies</t>
-  </si>
-  <si>
-    <t>[Task]</t>
   </si>
   <si>
     <t>Changing the Color of the Bars in the Gantt Chart</t>
@@ -524,9 +521,6 @@
   </si>
   <si>
     <t>% DONE</t>
-  </si>
-  <si>
-    <t>WORK DAYS</t>
   </si>
   <si>
     <t xml:space="preserve">Display Week </t>
@@ -1440,9 +1434,6 @@
     <t>Ebrahim Rashed</t>
   </si>
   <si>
-    <t>(not start)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sprint 4 Maps &amp; Bus </t>
   </si>
   <si>
@@ -1458,10 +1449,43 @@
     <t>Ahmed Eid-Ahmed Adel</t>
   </si>
   <si>
-    <t>Sprint 3 OffersSection</t>
-  </si>
-  <si>
     <t>Ebrahim Rashed &amp; Eid</t>
+  </si>
+  <si>
+    <t>Sprint 3 booking cont.</t>
+  </si>
+  <si>
+    <t>Create booking ticket using html css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coding payment section using html,css  </t>
+  </si>
+  <si>
+    <t>design story points</t>
+  </si>
+  <si>
+    <t>collect information</t>
+  </si>
+  <si>
+    <t>coding offers section</t>
+  </si>
+  <si>
+    <t>Sketching page</t>
+  </si>
+  <si>
+    <t>Saleh  &amp; Ahmed adel</t>
+  </si>
+  <si>
+    <t>Saleh &amp; Ahmed adel</t>
+  </si>
+  <si>
+    <t>Ahmed Eid &amp; Ahmed Adel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActualWORK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk </t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1895,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2007,6 +2031,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2336,7 +2366,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2642,6 +2672,9 @@
     </xf>
     <xf numFmtId="0" fontId="62" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2899,13 +2932,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>253253</xdr:colOff>
+      <xdr:colOff>230842</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>122144</xdr:colOff>
+      <xdr:colOff>99732</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>181286</xdr:rowOff>
     </xdr:to>
@@ -3547,18 +3580,18 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BK45"/>
+  <dimension ref="A1:BK48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" style="1" customWidth="1"/>
@@ -3569,38 +3602,38 @@
   <sheetData>
     <row r="1" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="87" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
       <c r="F1" s="91"/>
-      <c r="H1" s="128" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="128"/>
+      <c r="H1" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
     </row>
     <row r="2" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -3633,190 +3666,190 @@
     <row r="4" spans="1:63" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="76"/>
       <c r="B4" s="79" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="122">
         <v>43157</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="90">
         <v>1</v>
       </c>
       <c r="F4" s="77"/>
       <c r="G4" s="44"/>
-      <c r="H4" s="129" t="str">
+      <c r="H4" s="130" t="str">
         <f>"Week "&amp;(H6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="129" t="str">
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="130" t="str">
         <f>"Week "&amp;(O6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="129" t="str">
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="130" t="str">
         <f>"Week "&amp;(V6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="129" t="str">
+      <c r="W4" s="131"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="130" t="str">
         <f>"Week "&amp;(AC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AD4" s="130"/>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="130"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="131"/>
-      <c r="AJ4" s="129" t="str">
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="131"/>
+      <c r="AH4" s="131"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="130" t="str">
         <f>"Week "&amp;(AJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AK4" s="130"/>
-      <c r="AL4" s="130"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="130"/>
-      <c r="AO4" s="130"/>
-      <c r="AP4" s="131"/>
-      <c r="AQ4" s="129" t="str">
+      <c r="AK4" s="131"/>
+      <c r="AL4" s="131"/>
+      <c r="AM4" s="131"/>
+      <c r="AN4" s="131"/>
+      <c r="AO4" s="131"/>
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="130" t="str">
         <f>"Week "&amp;(AQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AR4" s="130"/>
-      <c r="AS4" s="130"/>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="130"/>
-      <c r="AV4" s="130"/>
-      <c r="AW4" s="131"/>
-      <c r="AX4" s="129" t="str">
+      <c r="AR4" s="131"/>
+      <c r="AS4" s="131"/>
+      <c r="AT4" s="131"/>
+      <c r="AU4" s="131"/>
+      <c r="AV4" s="131"/>
+      <c r="AW4" s="132"/>
+      <c r="AX4" s="130" t="str">
         <f>"Week "&amp;(AX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AY4" s="130"/>
-      <c r="AZ4" s="130"/>
-      <c r="BA4" s="130"/>
-      <c r="BB4" s="130"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="131"/>
-      <c r="BE4" s="129" t="str">
+      <c r="AY4" s="131"/>
+      <c r="AZ4" s="131"/>
+      <c r="BA4" s="131"/>
+      <c r="BB4" s="131"/>
+      <c r="BC4" s="131"/>
+      <c r="BD4" s="132"/>
+      <c r="BE4" s="130" t="str">
         <f>"Week "&amp;(BE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BF4" s="130"/>
-      <c r="BG4" s="130"/>
-      <c r="BH4" s="130"/>
-      <c r="BI4" s="130"/>
-      <c r="BJ4" s="130"/>
-      <c r="BK4" s="131"/>
+      <c r="BF4" s="131"/>
+      <c r="BG4" s="131"/>
+      <c r="BH4" s="131"/>
+      <c r="BI4" s="131"/>
+      <c r="BJ4" s="131"/>
+      <c r="BK4" s="132"/>
     </row>
     <row r="5" spans="1:63" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76"/>
       <c r="B5" s="79" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="121"/>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
       <c r="G5" s="44"/>
-      <c r="H5" s="132">
+      <c r="H5" s="133">
         <f>H6</f>
         <v>43157</v>
       </c>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="132">
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="133">
         <f>O6</f>
         <v>43164</v>
       </c>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="133"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="132">
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="133">
         <f>V6</f>
         <v>43171</v>
       </c>
-      <c r="W5" s="133"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="133"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="132">
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="133">
         <f>AC6</f>
         <v>43178</v>
       </c>
-      <c r="AD5" s="133"/>
-      <c r="AE5" s="133"/>
-      <c r="AF5" s="133"/>
-      <c r="AG5" s="133"/>
-      <c r="AH5" s="133"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="132">
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="135"/>
+      <c r="AJ5" s="133">
         <f>AJ6</f>
         <v>43185</v>
       </c>
-      <c r="AK5" s="133"/>
-      <c r="AL5" s="133"/>
-      <c r="AM5" s="133"/>
-      <c r="AN5" s="133"/>
-      <c r="AO5" s="133"/>
-      <c r="AP5" s="134"/>
-      <c r="AQ5" s="132">
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134"/>
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="135"/>
+      <c r="AQ5" s="133">
         <f>AQ6</f>
         <v>43192</v>
       </c>
-      <c r="AR5" s="133"/>
-      <c r="AS5" s="133"/>
-      <c r="AT5" s="133"/>
-      <c r="AU5" s="133"/>
-      <c r="AV5" s="133"/>
-      <c r="AW5" s="134"/>
-      <c r="AX5" s="132">
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134"/>
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="134"/>
+      <c r="AW5" s="135"/>
+      <c r="AX5" s="133">
         <f>AX6</f>
         <v>43199</v>
       </c>
-      <c r="AY5" s="133"/>
-      <c r="AZ5" s="133"/>
-      <c r="BA5" s="133"/>
-      <c r="BB5" s="133"/>
-      <c r="BC5" s="133"/>
-      <c r="BD5" s="134"/>
-      <c r="BE5" s="132">
+      <c r="AY5" s="134"/>
+      <c r="AZ5" s="134"/>
+      <c r="BA5" s="134"/>
+      <c r="BB5" s="134"/>
+      <c r="BC5" s="134"/>
+      <c r="BD5" s="135"/>
+      <c r="BE5" s="133">
         <f>BE6</f>
         <v>43206</v>
       </c>
-      <c r="BF5" s="133"/>
-      <c r="BG5" s="133"/>
-      <c r="BH5" s="133"/>
-      <c r="BI5" s="133"/>
-      <c r="BJ5" s="133"/>
-      <c r="BK5" s="134"/>
+      <c r="BF5" s="134"/>
+      <c r="BG5" s="134"/>
+      <c r="BH5" s="134"/>
+      <c r="BI5" s="134"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="135"/>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" s="43"/>
@@ -4056,19 +4089,19 @@
         <v>0</v>
       </c>
       <c r="B7" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="D7" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>63</v>
-      </c>
       <c r="F7" s="82" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="G7" s="82"/>
       <c r="H7" s="83" t="str">
@@ -4302,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="63"/>
@@ -4372,10 +4405,10 @@
         <v>1.1</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D9" s="53">
         <v>6</v>
@@ -4450,10 +4483,10 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D10" s="53">
         <v>4</v>
@@ -4528,10 +4561,10 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D11" s="53">
         <v>4</v>
@@ -4605,7 +4638,10 @@
         <v>1.4</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>183</v>
       </c>
       <c r="D12" s="53">
         <v>5</v>
@@ -4674,13 +4710,13 @@
     </row>
     <row r="13" spans="1:63" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13" s="53">
         <v>4</v>
@@ -4751,13 +4787,13 @@
     </row>
     <row r="14" spans="1:63" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D14" s="53">
         <v>3</v>
@@ -4832,10 +4868,10 @@
         <v>1.5</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D15" s="53">
         <v>3</v>
@@ -4906,13 +4942,13 @@
     </row>
     <row r="16" spans="1:63" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D16" s="53">
         <v>3</v>
@@ -4987,10 +5023,10 @@
         <v>1.5.2</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17" s="53">
         <v>2</v>
@@ -5061,13 +5097,13 @@
     </row>
     <row r="18" spans="1:63" s="52" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D18" s="53">
         <v>3</v>
@@ -5138,13 +5174,13 @@
     </row>
     <row r="19" spans="1:63" s="52" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D19" s="53">
         <v>6</v>
@@ -5219,10 +5255,10 @@
         <v>1.5.5</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D20" s="53">
         <v>3</v>
@@ -5297,10 +5333,10 @@
         <v>1.6</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D21" s="53">
         <v>4</v>
@@ -5375,7 +5411,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="50"/>
@@ -5444,10 +5480,10 @@
         <v>2.1</v>
       </c>
       <c r="B23" s="88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D23" s="53">
         <v>4</v>
@@ -5456,7 +5492,7 @@
         <v>0.6</v>
       </c>
       <c r="F23" s="55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G23" s="69"/>
       <c r="H23" s="73"/>
@@ -5522,18 +5558,20 @@
         <v>2.2</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="54">
         <v>0.1</v>
       </c>
-      <c r="F24" s="55"/>
+      <c r="F24" s="55">
+        <v>5</v>
+      </c>
       <c r="G24" s="69"/>
       <c r="H24" s="73"/>
       <c r="I24" s="73"/>
@@ -5598,18 +5636,20 @@
         <v>2.3</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D25" s="53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="54">
         <v>0.1</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="55">
+        <v>4</v>
+      </c>
       <c r="G25" s="69"/>
       <c r="H25" s="73"/>
       <c r="I25" s="73"/>
@@ -5674,18 +5714,20 @@
         <v>2.4</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D26" s="53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" s="54">
         <v>0.1</v>
       </c>
-      <c r="F26" s="55"/>
+      <c r="F26" s="55">
+        <v>4</v>
+      </c>
       <c r="G26" s="69"/>
       <c r="H26" s="73"/>
       <c r="I26" s="73"/>
@@ -5749,13 +5791,13 @@
         <v>2.5</v>
       </c>
       <c r="B27" s="88" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D27" s="53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="54">
         <v>0.95</v>
@@ -5827,19 +5869,19 @@
         <v>2.6</v>
       </c>
       <c r="B28" s="88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D28" s="53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" s="54">
         <v>0.75</v>
       </c>
       <c r="F28" s="55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="69"/>
       <c r="H28" s="73"/>
@@ -5905,7 +5947,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="50"/>
@@ -5974,10 +6016,10 @@
         <v>3.1</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D30" s="53">
         <v>8</v>
@@ -5986,7 +6028,7 @@
         <v>0.9</v>
       </c>
       <c r="F30" s="55">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G30" s="69"/>
       <c r="H30" s="73"/>
@@ -6052,10 +6094,10 @@
         <v>3.2</v>
       </c>
       <c r="B31" s="88" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D31" s="53">
         <v>6</v>
@@ -6064,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="55">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G31" s="69"/>
       <c r="H31" s="73"/>
@@ -6130,10 +6172,10 @@
         <v>3.3</v>
       </c>
       <c r="B32" s="88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D32" s="53">
         <v>3</v>
@@ -6142,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" s="69"/>
       <c r="H32" s="73"/>
@@ -6208,19 +6250,19 @@
         <v>3.4</v>
       </c>
       <c r="B33" s="88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D33" s="53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33" s="54">
         <v>0.8</v>
       </c>
       <c r="F33" s="55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" s="69"/>
       <c r="H33" s="73"/>
@@ -6285,13 +6327,13 @@
         <v>3.5</v>
       </c>
       <c r="B34" s="88" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D34" s="53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34" s="54">
         <v>1</v>
@@ -6363,19 +6405,19 @@
         <v>3.6</v>
       </c>
       <c r="B35" s="88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D35" s="53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35" s="54">
         <v>1</v>
       </c>
       <c r="F35" s="55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="69"/>
       <c r="H35" s="73"/>
@@ -6441,10 +6483,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="50"/>
@@ -6507,21 +6546,26 @@
       <c r="BJ36" s="75"/>
       <c r="BK36" s="75"/>
     </row>
-    <row r="37" spans="1:63" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:63" s="52" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A37" s="51" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
       <c r="B37" s="88" t="s">
-        <v>7</v>
+        <v>176</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>157</v>
       </c>
       <c r="D37" s="53">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E37" s="54">
         <v>0</v>
       </c>
-      <c r="F37" s="55"/>
+      <c r="F37" s="55">
+        <v>8</v>
+      </c>
       <c r="G37" s="69"/>
       <c r="H37" s="73"/>
       <c r="I37" s="73"/>
@@ -6580,21 +6624,26 @@
       <c r="BJ37" s="73"/>
       <c r="BK37" s="73"/>
     </row>
-    <row r="38" spans="1:63" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:63" s="52" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="51" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.2</v>
       </c>
       <c r="B38" s="88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="53">
         <v>7</v>
-      </c>
-      <c r="D38" s="53">
-        <v>1</v>
       </c>
       <c r="E38" s="54">
         <v>0</v>
       </c>
-      <c r="F38" s="55"/>
+      <c r="F38" s="55">
+        <v>8</v>
+      </c>
       <c r="G38" s="69"/>
       <c r="H38" s="73"/>
       <c r="I38" s="73"/>
@@ -6654,20 +6703,22 @@
       <c r="BK38" s="73"/>
     </row>
     <row r="39" spans="1:63" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+      <c r="A39" s="51">
         <v>4.3</v>
       </c>
       <c r="B39" s="88" t="s">
-        <v>7</v>
+        <v>177</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>181</v>
       </c>
       <c r="D39" s="53">
-        <v>1</v>
-      </c>
-      <c r="E39" s="54">
-        <v>0</v>
-      </c>
-      <c r="F39" s="55"/>
+        <v>4</v>
+      </c>
+      <c r="E39" s="54"/>
+      <c r="F39" s="55">
+        <v>5</v>
+      </c>
       <c r="G39" s="69"/>
       <c r="H39" s="73"/>
       <c r="I39" s="73"/>
@@ -6727,20 +6778,19 @@
       <c r="BK39" s="73"/>
     </row>
     <row r="40" spans="1:63" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B40" s="88" t="s">
-        <v>7</v>
+      <c r="A40" s="51">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B40" s="128" t="s">
+        <v>185</v>
       </c>
       <c r="D40" s="53">
-        <v>1</v>
-      </c>
-      <c r="E40" s="54">
-        <v>0</v>
-      </c>
-      <c r="F40" s="55"/>
+        <v>5</v>
+      </c>
+      <c r="E40" s="54"/>
+      <c r="F40" s="55">
+        <v>4</v>
+      </c>
       <c r="G40" s="69"/>
       <c r="H40" s="73"/>
       <c r="I40" s="73"/>
@@ -6805,15 +6855,20 @@
         <v>4.5</v>
       </c>
       <c r="B41" s="88" t="s">
-        <v>7</v>
+        <v>171</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>155</v>
       </c>
       <c r="D41" s="53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E41" s="54">
         <v>0</v>
       </c>
-      <c r="F41" s="55"/>
+      <c r="F41" s="55">
+        <v>5</v>
+      </c>
       <c r="G41" s="69"/>
       <c r="H41" s="73"/>
       <c r="I41" s="73"/>
@@ -6877,10 +6932,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="50"/>
@@ -6944,14 +6999,22 @@
       <c r="BK42" s="75"/>
     </row>
     <row r="43" spans="1:63" s="56" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
+      <c r="A43" s="51">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="B43" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="53"/>
+        <v>178</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="53">
+        <v>5</v>
+      </c>
       <c r="E43" s="54"/>
-      <c r="F43" s="55"/>
+      <c r="F43" s="55">
+        <v>4</v>
+      </c>
       <c r="G43" s="71"/>
       <c r="H43" s="73"/>
       <c r="I43" s="73"/>
@@ -7013,12 +7076,18 @@
     <row r="44" spans="1:63" s="56" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="51"/>
       <c r="B44" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="53"/>
+        <v>180</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="53">
+        <v>4</v>
+      </c>
       <c r="E44" s="54"/>
-      <c r="F44" s="55"/>
+      <c r="F44" s="55">
+        <v>5</v>
+      </c>
       <c r="G44" s="71"/>
       <c r="H44" s="73"/>
       <c r="I44" s="73"/>
@@ -7077,69 +7146,288 @@
       <c r="BJ44" s="73"/>
       <c r="BK44" s="73"/>
     </row>
-    <row r="45" spans="1:63" s="48" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="75"/>
-      <c r="P45" s="75"/>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="75"/>
-      <c r="S45" s="75"/>
-      <c r="T45" s="75"/>
-      <c r="U45" s="75"/>
-      <c r="V45" s="75"/>
-      <c r="W45" s="75"/>
-      <c r="X45" s="75"/>
-      <c r="Y45" s="75"/>
-      <c r="Z45" s="75"/>
-      <c r="AA45" s="75"/>
-      <c r="AB45" s="75"/>
-      <c r="AC45" s="75"/>
-      <c r="AD45" s="75"/>
-      <c r="AE45" s="75"/>
-      <c r="AF45" s="75"/>
-      <c r="AG45" s="75"/>
-      <c r="AH45" s="75"/>
-      <c r="AI45" s="75"/>
-      <c r="AJ45" s="75"/>
-      <c r="AK45" s="75"/>
-      <c r="AL45" s="75"/>
-      <c r="AM45" s="75"/>
-      <c r="AN45" s="75"/>
-      <c r="AO45" s="75"/>
-      <c r="AP45" s="75"/>
-      <c r="AQ45" s="75"/>
-      <c r="AR45" s="75"/>
-      <c r="AS45" s="75"/>
-      <c r="AT45" s="75"/>
-      <c r="AU45" s="75"/>
-      <c r="AV45" s="75"/>
-      <c r="AW45" s="75"/>
-      <c r="AX45" s="75"/>
-      <c r="AY45" s="75"/>
-      <c r="AZ45" s="75"/>
-      <c r="BA45" s="75"/>
-      <c r="BB45" s="75"/>
-      <c r="BC45" s="75"/>
-      <c r="BD45" s="75"/>
-      <c r="BE45" s="75"/>
-      <c r="BF45" s="75"/>
-      <c r="BG45" s="75"/>
-      <c r="BH45" s="75"/>
-      <c r="BI45" s="75"/>
-      <c r="BJ45" s="75"/>
-      <c r="BK45" s="75"/>
+    <row r="45" spans="1:63" s="56" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="51"/>
+      <c r="B45" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="53">
+        <v>8</v>
+      </c>
+      <c r="E45" s="54"/>
+      <c r="F45" s="55">
+        <v>9</v>
+      </c>
+      <c r="G45" s="71"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
+      <c r="Z45" s="73"/>
+      <c r="AA45" s="73"/>
+      <c r="AB45" s="73"/>
+      <c r="AC45" s="73"/>
+      <c r="AD45" s="73"/>
+      <c r="AE45" s="73"/>
+      <c r="AF45" s="73"/>
+      <c r="AG45" s="73"/>
+      <c r="AH45" s="73"/>
+      <c r="AI45" s="73"/>
+      <c r="AJ45" s="73"/>
+      <c r="AK45" s="73"/>
+      <c r="AL45" s="73"/>
+      <c r="AM45" s="73"/>
+      <c r="AN45" s="73"/>
+      <c r="AO45" s="73"/>
+      <c r="AP45" s="73"/>
+      <c r="AQ45" s="73"/>
+      <c r="AR45" s="73"/>
+      <c r="AS45" s="73"/>
+      <c r="AT45" s="73"/>
+      <c r="AU45" s="73"/>
+      <c r="AV45" s="73"/>
+      <c r="AW45" s="73"/>
+      <c r="AX45" s="73"/>
+      <c r="AY45" s="73"/>
+      <c r="AZ45" s="73"/>
+      <c r="BA45" s="73"/>
+      <c r="BB45" s="73"/>
+      <c r="BC45" s="73"/>
+      <c r="BD45" s="73"/>
+      <c r="BE45" s="73"/>
+      <c r="BF45" s="73"/>
+      <c r="BG45" s="73"/>
+      <c r="BH45" s="73"/>
+      <c r="BI45" s="73"/>
+      <c r="BJ45" s="73"/>
+      <c r="BK45" s="73"/>
+    </row>
+    <row r="46" spans="1:63" s="56" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="51"/>
+      <c r="B46" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="53">
+        <v>8</v>
+      </c>
+      <c r="E46" s="54"/>
+      <c r="F46" s="55">
+        <v>8</v>
+      </c>
+      <c r="G46" s="71"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="73"/>
+      <c r="X46" s="73"/>
+      <c r="Y46" s="73"/>
+      <c r="Z46" s="73"/>
+      <c r="AA46" s="73"/>
+      <c r="AB46" s="73"/>
+      <c r="AC46" s="73"/>
+      <c r="AD46" s="73"/>
+      <c r="AE46" s="73"/>
+      <c r="AF46" s="73"/>
+      <c r="AG46" s="73"/>
+      <c r="AH46" s="73"/>
+      <c r="AI46" s="73"/>
+      <c r="AJ46" s="73"/>
+      <c r="AK46" s="73"/>
+      <c r="AL46" s="73"/>
+      <c r="AM46" s="73"/>
+      <c r="AN46" s="73"/>
+      <c r="AO46" s="73"/>
+      <c r="AP46" s="73"/>
+      <c r="AQ46" s="73"/>
+      <c r="AR46" s="73"/>
+      <c r="AS46" s="73"/>
+      <c r="AT46" s="73"/>
+      <c r="AU46" s="73"/>
+      <c r="AV46" s="73"/>
+      <c r="AW46" s="73"/>
+      <c r="AX46" s="73"/>
+      <c r="AY46" s="73"/>
+      <c r="AZ46" s="73"/>
+      <c r="BA46" s="73"/>
+      <c r="BB46" s="73"/>
+      <c r="BC46" s="73"/>
+      <c r="BD46" s="73"/>
+      <c r="BE46" s="73"/>
+      <c r="BF46" s="73"/>
+      <c r="BG46" s="73"/>
+      <c r="BH46" s="73"/>
+      <c r="BI46" s="73"/>
+      <c r="BJ46" s="73"/>
+      <c r="BK46" s="73"/>
+    </row>
+    <row r="47" spans="1:63" s="56" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="51"/>
+      <c r="B47" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="53">
+        <v>5</v>
+      </c>
+      <c r="E47" s="54"/>
+      <c r="F47" s="55">
+        <v>4</v>
+      </c>
+      <c r="G47" s="71"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="73"/>
+      <c r="Y47" s="73"/>
+      <c r="Z47" s="73"/>
+      <c r="AA47" s="73"/>
+      <c r="AB47" s="73"/>
+      <c r="AC47" s="73"/>
+      <c r="AD47" s="73"/>
+      <c r="AE47" s="73"/>
+      <c r="AF47" s="73"/>
+      <c r="AG47" s="73"/>
+      <c r="AH47" s="73"/>
+      <c r="AI47" s="73"/>
+      <c r="AJ47" s="73"/>
+      <c r="AK47" s="73"/>
+      <c r="AL47" s="73"/>
+      <c r="AM47" s="73"/>
+      <c r="AN47" s="73"/>
+      <c r="AO47" s="73"/>
+      <c r="AP47" s="73"/>
+      <c r="AQ47" s="73"/>
+      <c r="AR47" s="73"/>
+      <c r="AS47" s="73"/>
+      <c r="AT47" s="73"/>
+      <c r="AU47" s="73"/>
+      <c r="AV47" s="73"/>
+      <c r="AW47" s="73"/>
+      <c r="AX47" s="73"/>
+      <c r="AY47" s="73"/>
+      <c r="AZ47" s="73"/>
+      <c r="BA47" s="73"/>
+      <c r="BB47" s="73"/>
+      <c r="BC47" s="73"/>
+      <c r="BD47" s="73"/>
+      <c r="BE47" s="73"/>
+      <c r="BF47" s="73"/>
+      <c r="BG47" s="73"/>
+      <c r="BH47" s="73"/>
+      <c r="BI47" s="73"/>
+      <c r="BJ47" s="73"/>
+      <c r="BK47" s="73"/>
+    </row>
+    <row r="48" spans="1:63" s="48" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="75"/>
+      <c r="O48" s="75"/>
+      <c r="P48" s="75"/>
+      <c r="Q48" s="75"/>
+      <c r="R48" s="75"/>
+      <c r="S48" s="75"/>
+      <c r="T48" s="75"/>
+      <c r="U48" s="75"/>
+      <c r="V48" s="75"/>
+      <c r="W48" s="75"/>
+      <c r="X48" s="75"/>
+      <c r="Y48" s="75"/>
+      <c r="Z48" s="75"/>
+      <c r="AA48" s="75"/>
+      <c r="AB48" s="75"/>
+      <c r="AC48" s="75"/>
+      <c r="AD48" s="75"/>
+      <c r="AE48" s="75"/>
+      <c r="AF48" s="75"/>
+      <c r="AG48" s="75"/>
+      <c r="AH48" s="75"/>
+      <c r="AI48" s="75"/>
+      <c r="AJ48" s="75"/>
+      <c r="AK48" s="75"/>
+      <c r="AL48" s="75"/>
+      <c r="AM48" s="75"/>
+      <c r="AN48" s="75"/>
+      <c r="AO48" s="75"/>
+      <c r="AP48" s="75"/>
+      <c r="AQ48" s="75"/>
+      <c r="AR48" s="75"/>
+      <c r="AS48" s="75"/>
+      <c r="AT48" s="75"/>
+      <c r="AU48" s="75"/>
+      <c r="AV48" s="75"/>
+      <c r="AW48" s="75"/>
+      <c r="AX48" s="75"/>
+      <c r="AY48" s="75"/>
+      <c r="AZ48" s="75"/>
+      <c r="BA48" s="75"/>
+      <c r="BB48" s="75"/>
+      <c r="BC48" s="75"/>
+      <c r="BD48" s="75"/>
+      <c r="BE48" s="75"/>
+      <c r="BF48" s="75"/>
+      <c r="BG48" s="75"/>
+      <c r="BH48" s="75"/>
+      <c r="BI48" s="75"/>
+      <c r="BJ48" s="75"/>
+      <c r="BK48" s="75"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -7163,7 +7451,7 @@
     <mergeCell ref="V5:AB5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="E8:E41 E43:E44">
+  <conditionalFormatting sqref="E8:E41 E43:E47">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7182,12 +7470,12 @@
       <formula>H$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:BK41 H43:BK44">
+  <conditionalFormatting sqref="H6:BK41 H43:BK47">
     <cfRule type="expression" dxfId="8" priority="16">
       <formula>H$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:BK41 H43:BK44">
+  <conditionalFormatting sqref="H8:BK41 H43:BK47">
     <cfRule type="expression" dxfId="7" priority="60">
       <formula>AND(#REF!&lt;=H$6,ROUNDDOWN((#REF!-#REF!+1)*$E8,0)+#REF!-1&gt;=H$6)</formula>
     </cfRule>
@@ -7222,7 +7510,7 @@
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=H$6,#REF!&gt;=H$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E48">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7236,14 +7524,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45:BK45">
+  <conditionalFormatting sqref="H48:BK48">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>H$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45:BK45">
+  <conditionalFormatting sqref="H48:BK48">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>AND(#REF!&lt;=H$6,ROUNDDOWN((#REF!-#REF!+1)*$E45,0)+#REF!-1&gt;=H$6)</formula>
+      <formula>AND(#REF!&lt;=H$6,ROUNDDOWN((#REF!-#REF!+1)*$E48,0)+#REF!-1&gt;=H$6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=H$6,#REF!&gt;=H$6)</formula>
@@ -7259,7 +7547,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E9 B37 B38:B40 D17 D20 D42:E42 D11 D22:E22 D29:E29 D36:E40 D43 D44" unlockedFormula="1"/>
+    <ignoredError sqref="E9 D17 D20 D11 D22:E22 D29:E29 D36:E36 D42:E42 E37 E38 E41" unlockedFormula="1"/>
     <ignoredError sqref="A22" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
@@ -7308,7 +7596,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E8:E41 E43:E44</xm:sqref>
+          <xm:sqref>E8:E41 E43:E47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BE929190-B74E-439E-903D-7E130AD47293}">
@@ -7338,7 +7626,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E45</xm:sqref>
+          <xm:sqref>E48</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7367,17 +7655,17 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -7385,149 +7673,149 @@
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C7" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C13" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:2" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="2:2" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B46" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -7561,14 +7849,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="7"/>
@@ -7580,48 +7868,48 @@
     </row>
     <row r="4" spans="1:3" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="33"/>
     </row>
     <row r="5" spans="1:3" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="B5" s="98" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="98" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="135"/>
+      <c r="B13" s="136"/>
     </row>
     <row r="14" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:3" s="93" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="101"/>
       <c r="B15" s="99" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="93" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="101"/>
       <c r="B16" s="100" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="95" t="s">
         <v>2</v>
@@ -7630,25 +7918,25 @@
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="102"/>
       <c r="B17" s="100" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="102"/>
       <c r="B18" s="100" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="105"/>
       <c r="B19" s="100" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="93" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="101"/>
       <c r="B20" s="99" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="94" t="s">
         <v>1</v>
@@ -7657,13 +7945,13 @@
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="102"/>
       <c r="B21" s="100" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="103"/>
       <c r="B22" s="104" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -7671,15 +7959,15 @@
       <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:3" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="135" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="135"/>
+      <c r="A24" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="136"/>
     </row>
     <row r="25" spans="1:3" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A25" s="103"/>
       <c r="B25" s="100" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -7689,19 +7977,19 @@
     <row r="27" spans="1:3" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="103"/>
       <c r="B27" s="120" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="103"/>
       <c r="B28" s="100" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="103"/>
       <c r="B29" s="100" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -7711,19 +7999,19 @@
     <row r="31" spans="1:3" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="103"/>
       <c r="B31" s="120" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="103"/>
       <c r="B32" s="100" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="103"/>
       <c r="B33" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -7733,13 +8021,13 @@
     <row r="35" spans="1:2" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A35" s="103"/>
       <c r="B35" s="100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="103"/>
       <c r="B36" s="106" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -7747,32 +8035,32 @@
       <c r="B37" s="9"/>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="135" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="135"/>
+      <c r="A38" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="136"/>
     </row>
     <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="100" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:2" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B41" s="100" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:2" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="100" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B45" s="100" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -7780,21 +8068,21 @@
     </row>
     <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="100" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" s="10"/>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="135" t="s">
+      <c r="A49" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="135"/>
+      <c r="B49" s="136"/>
     </row>
     <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="100" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -7802,123 +8090,123 @@
     </row>
     <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="100" t="s">
         <v>10</v>
-      </c>
-      <c r="B52" s="100" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="100" t="s">
         <v>12</v>
-      </c>
-      <c r="B53" s="100" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="100" t="s">
         <v>14</v>
-      </c>
-      <c r="B54" s="100" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="96"/>
       <c r="B55" s="100" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="96"/>
       <c r="B56" s="100" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="100" t="s">
         <v>16</v>
-      </c>
-      <c r="B57" s="100" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="96"/>
       <c r="B58" s="100" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="96"/>
       <c r="B59" s="100" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="100" t="s">
         <v>18</v>
-      </c>
-      <c r="B60" s="100" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="96"/>
       <c r="B61" s="100" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B62" s="100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="108"/>
       <c r="B63" s="100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
     </row>
     <row r="65" spans="1:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="135" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="135"/>
+      <c r="A65" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="136"/>
     </row>
     <row r="66" spans="1:2" s="19" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B66" s="100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="12"/>
     </row>
     <row r="68" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="135" t="s">
+      <c r="A68" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="135"/>
+      <c r="B68" s="136"/>
     </row>
     <row r="69" spans="1:2" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="115" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="116" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="109"/>
       <c r="B70" s="114" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -7930,13 +8218,13 @@
         <v>5</v>
       </c>
       <c r="B72" s="116" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="109"/>
       <c r="B73" s="114" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -7948,13 +8236,13 @@
         <v>5</v>
       </c>
       <c r="B75" s="118" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="109"/>
       <c r="B76" s="98" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -7966,13 +8254,13 @@
         <v>5</v>
       </c>
       <c r="B78" s="118" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="109"/>
       <c r="B79" s="98" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -7984,25 +8272,25 @@
         <v>5</v>
       </c>
       <c r="B81" s="118" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="109"/>
       <c r="B82" s="113" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="109"/>
       <c r="B83" s="113" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:2" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="109"/>
       <c r="B84" s="113" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -8014,25 +8302,25 @@
         <v>5</v>
       </c>
       <c r="B86" s="118" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A87" s="109"/>
       <c r="B87" s="98" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="109"/>
       <c r="B88" s="111" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A89" s="109"/>
       <c r="B89" s="117" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -8044,18 +8332,18 @@
         <v>5</v>
       </c>
       <c r="B91" s="119" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="96"/>
       <c r="B92" s="113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -8098,7 +8386,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="39"/>
@@ -8113,14 +8401,14 @@
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="37"/>
       <c r="B3" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="38"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="14"/>
     </row>
@@ -8132,7 +8420,7 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -8144,7 +8432,7 @@
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="14"/>
     </row>
@@ -8156,7 +8444,7 @@
     <row r="10" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="14"/>
     </row>
@@ -8168,7 +8456,7 @@
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="14"/>
     </row>
@@ -8180,7 +8468,7 @@
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="14"/>
     </row>
@@ -8192,7 +8480,7 @@
     <row r="16" spans="1:4" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="14"/>
     </row>
@@ -8204,14 +8492,14 @@
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="14"/>
     </row>
